--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
@@ -531,7 +531,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6139516666666667</v>
+        <v>0.6139516666666666</v>
       </c>
       <c r="H2">
         <v>1.841855</v>
@@ -549,10 +549,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06202966666666667</v>
+        <v>0.03941866666666666</v>
       </c>
       <c r="N2">
-        <v>0.186089</v>
+        <v>0.118256</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03808321723277778</v>
+        <v>0.02420115609777777</v>
       </c>
       <c r="R2">
-        <v>0.342748955095</v>
+        <v>0.21781040488</v>
       </c>
       <c r="S2">
         <v>1</v>
